--- a/FoundData/IrelandDataInvestigation.xlsx
+++ b/FoundData/IrelandDataInvestigation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD3261-5F03-6648-9782-01490A807165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5C467-9935-E94B-89E7-08B8016B40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="11540" windowWidth="17280" windowHeight="10800" xr2:uid="{8A8C695C-1C44-6A4B-AE3D-6B277C668148}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{8A8C695C-1C44-6A4B-AE3D-6B277C668148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="144">
   <si>
     <t>Country</t>
   </si>
@@ -161,9 +161,6 @@
     <t>https://data.cso.ie/table/AAA30</t>
   </si>
   <si>
-    <t>FAOSTAT and WOAH had almost identical populcation counts for this year and the Central Statistics Office Ireland reported a similar number to them</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAOSTAT did not report a large dip in population this year but the Central Statistics Office Ireland did </t>
   </si>
   <si>
@@ -278,219 +275,6 @@
     <t>https://data.cso.ie/table/AAA60</t>
   </si>
   <si>
-    <t>https://data.cso.ie/table/AAA61</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA62</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA63</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA64</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA65</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA66</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA67</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA68</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA69</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA70</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA71</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA72</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA73</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA74</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA75</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA76</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA77</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA78</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA79</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA80</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA81</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA82</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA83</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA84</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA85</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA86</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA87</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA88</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA89</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA90</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA91</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA92</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA93</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA94</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA95</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA96</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA97</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA98</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA99</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA100</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA101</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA102</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA103</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA104</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA105</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA106</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA107</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA108</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA109</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA110</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA111</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA112</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA113</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA114</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA115</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA116</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA117</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA118</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA119</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA120</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA121</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA122</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA123</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA124</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA125</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA126</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA127</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA128</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA129</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA130</t>
-  </si>
-  <si>
-    <t>https://data.cso.ie/table/AAA131</t>
-  </si>
-  <si>
     <t>WOAH recorded similar sheep population to the Central Statistics Office Ireland for 2005</t>
   </si>
   <si>
@@ -501,13 +285,196 @@
   </si>
   <si>
     <t>FAOSTAT and the Central Statistics Office Ireland had differing sheep population numbers by over 1.5 million</t>
+  </si>
+  <si>
+    <t>WOAH and the Central Statistics Office Ireland had the same population count for this year</t>
+  </si>
+  <si>
+    <t>FAOSTAT and the Central Statistics Office Ireland had differing sheep population numbers by over 2 million</t>
+  </si>
+  <si>
+    <t>FAOSTAT and the Central Statistics Office Ireland had differing populations this year by about 1.7 million sheep.</t>
+  </si>
+  <si>
+    <t>WOAH was half a million sheep off the Central Statistics Office Ireland for this year</t>
+  </si>
+  <si>
+    <t>FAOSTAT and the Central Statistics Office Ireland had the same population for this year</t>
+  </si>
+  <si>
+    <t>FAOSTAT, WOAH, and the Central Statistics Office Ireland had the same population number for this year</t>
+  </si>
+  <si>
+    <t>FAOSTAT reports 3.5 million cattle in 1966, whereas a paper presented in 1966 stated there was a 1.5 million cattle. The statement in the paper says 1.5 million exactly whereas FAOSTAT has a much more precise number. This means it is most likely that FAOSTAT has better data as they were able to get a more precise number.</t>
+  </si>
+  <si>
+    <t>http://www.tara.tcd.ie/bitstream/handle/2262/5100/jssisiVolXXIPartIV_99130.pdf;sequence=1</t>
+  </si>
+  <si>
+    <t>https://www-jstor-org.subzero.lib.uoguelph.ca/stable/142942?origin=crossref&amp;seq=1</t>
+  </si>
+  <si>
+    <t>FAOSTAT reports 3.38 million cattle in 1965, whereas a paper presented in 1965 stated there was a 5.3 million cattle. Although the paper has a very precise number, other papers from around this time have a large difference in population. So it can be hard to determine the actual population of the cattle at this point in time.</t>
+  </si>
+  <si>
+    <t>Pigs</t>
+  </si>
+  <si>
+    <t>FAOSTAT and the Central Statistics Office Ireland have almost identical population data for this year.</t>
+  </si>
+  <si>
+    <t>FAOSTAT and the Central Statistics Office Ireland have almost identical population data for this year but FAOSTATs population dips for this year when the Central Statistics Office Ireland does not</t>
+  </si>
+  <si>
+    <t>FAOSTAT/WOAH and the Central Statistics Office Ireland have almost identical population data for this year.</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/hosted-document?doi=10.15212/ijafr-2020-0153</t>
+  </si>
+  <si>
+    <t>1980+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the 1980s, Artificial Insemination has increased in popularity in Ireland resulting in more piglets per sow. This has resulted in a higher death count for piglets but has allowed more piglets to be born and turn into adults helping increase the number of pigs in Ireland. </t>
+  </si>
+  <si>
+    <t>Chickens</t>
+  </si>
+  <si>
+    <t>https://www.cso.ie/en/releasesandpublications/ep/p-coa/censusofagriculture2020-preliminaryresults/farmstructure/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT and the CSO (Central Statistics Office of Ireland) have much closer population numbers for this time. FAOSTAT reports 12.72 million Chickens while CSO reports ~14 million chickens. This is much closer than the previous rating but still more than a million chickens off. </t>
+  </si>
+  <si>
+    <t>FAOSTAT is  800,000 cattle off CSO's data. This is a lot of cattle considering the country size and amount of cattle both sources are reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT and the CSO are reporting identical population numbers for this year. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT and the CSO are only off by 50,000 pigs out of over 1.2 million </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT and the CSO are off by less than 100,000 out of1.6 million. </t>
+  </si>
+  <si>
+    <t>2014+</t>
+  </si>
+  <si>
+    <t>The Central Statistics Office Ireland has the same data as Eurostat.</t>
+  </si>
+  <si>
+    <t>https://data.cso.ie</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/APRO_MT_LSCATL__custom_9130560/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>FAOSTAT is reporting the previous years data</t>
+  </si>
+  <si>
+    <t>FAOSTAT is showing data from the previous years Eurostat data for this year</t>
+  </si>
+  <si>
+    <t>FAOSTAT is off Eurostat by roughly 700 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT is off Eurostat by roughly 600 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT is off Eurostat by roughly 800 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT/WOAH/UN Census Data</t>
+  </si>
+  <si>
+    <t>All three have identical data for this year which is strong evidence that this is the correct data point if all three arrived at the same number.</t>
+  </si>
+  <si>
+    <t>FAOSTAT is off Eurostat by roughly 500 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT and Eurostat have identical data for this year. It is most likely because FAOSTAT is reporting the Eurostat data for this year since the data is exactly the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattle </t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>WOAH is off Eurostat by roughly 750 thousand for this date</t>
+  </si>
+  <si>
+    <t>WOAH is off Eurostat by roughly 500 thousand for this date</t>
+  </si>
+  <si>
+    <t>WOAH is off Eurostat by roughly 400 thousand for this date</t>
+  </si>
+  <si>
+    <t>WOAH is off Eurostat by roughly 700 thousand for this date</t>
+  </si>
+  <si>
+    <t>WOAH and Eurostat have identical population number for this year</t>
+  </si>
+  <si>
+    <t>WOAH and Eurostat have almost identical population number for this year being less than 100k off one another</t>
+  </si>
+  <si>
+    <t>WOAH and Eurostat have almost identical population number for this year being about 100k off one another</t>
+  </si>
+  <si>
+    <t>WOAH and Eurostat have almost identical population numbers being only a few thousand off one another</t>
+  </si>
+  <si>
+    <t>WOAH and Eurostat have almost identical population numbers being roughly 100k off one another</t>
+  </si>
+  <si>
+    <t>WOAH is off Eurostat by roughly 650 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT is off Eurostat by roughly 300 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT is off Eurostat by roughly 120 thousand for this date</t>
+  </si>
+  <si>
+    <t>FAOSTAT and WOAH had almost identical population counts for this year and the Central Statistics Office Ireland reported a similar number to them</t>
+  </si>
+  <si>
+    <t>In 1960, there was 888,000 Pigs approximately according to the attached paper. Given that FAOSTAT states there was 944400 Pigs in 1961, the paper is a good indication that FAOSTAT has quality data since it's somewhat close to the papers data point.</t>
+  </si>
+  <si>
+    <t>FAOSTAT and the CSO (Central Statistics Office of Ireland) have very differing numbers for 1991. The CSO reports just over 12 million Chickens in Ireland whereas FAOSTAT reports just over 8 million or 30 percent lower than the CSO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAOSTAT and the CSO (Central Statistics Office of Ireland) have somewhat similar population number for this year. FAOSTAT reports ~14 million Chickens while CSO reports ~11 million chickens. This is much closer than the previous rating but still more than a million chickens off. </t>
+  </si>
+  <si>
+    <t>The CSO reports 16.5 million chickens in 2020. FAOSTAT does not report chicken data for 2020 stopping at 2017. If you plot the line between the CSO data from 2010 and 2020, it aligns roughly with what FAOSTAT is saying for this year giving good evidence that it is most likely accurate.</t>
+  </si>
+  <si>
+    <t>FAOSTAT is reporting significantly less than the 8,888,000 Sheep the CSO is reporting</t>
+  </si>
+  <si>
+    <t>FAOSTAT is reporting significantly less than the 5,250,000 Sheep the CSO is reporting</t>
+  </si>
+  <si>
+    <t>FAOSTAT and Eurostat have almost identical data for this year being roughly 20k off each other</t>
+  </si>
+  <si>
+    <t>FAOSTAT and Eurostat have almost identical data for this year being roughly 30k off each other</t>
+  </si>
+  <si>
+    <t>FAOSTAT and WOAH have opposite data trends between these two years. FAOSTAT drops by 600k Cattle whereas WOAH gains by the same amount. It cannot be determined which is more accurate over this period between both sources due to both have such unlikely patterns.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,6 +484,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,13 +521,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,9 +548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,7 +588,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -708,7 +694,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -850,7 +836,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5AA93-6402-C847-9847-FC7E9B787ED2}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F136" sqref="A2:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -975,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -998,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -1021,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -1044,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -1067,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -1090,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1113,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -1136,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -1159,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -1182,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -1205,7 +1191,7 @@
         <v>3.5</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -1228,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -1251,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1274,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -1297,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -1320,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -1343,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -1366,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
@@ -1389,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -1412,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -1435,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -1458,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -1492,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>2005</v>
@@ -1504,7 +1490,7 @@
         <v>2.5</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
         <v>34</v>
@@ -1515,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>2005</v>
@@ -1527,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -1538,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>2006</v>
@@ -1550,7 +1536,7 @@
         <v>2.5</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -1561,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>2006</v>
@@ -1573,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
@@ -1584,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>2007</v>
@@ -1596,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -1607,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>2008</v>
@@ -1619,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -1630,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2009</v>
@@ -1642,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -1653,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>2010</v>
@@ -1665,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>2011</v>
@@ -1688,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,10 +1685,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>2011</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1710,10 +1708,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>2012</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1721,10 +1731,22 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>2012</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1732,10 +1754,22 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>2013</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1743,10 +1777,22 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>2013</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1754,10 +1800,22 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>2014</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1765,10 +1823,22 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>2014</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1776,10 +1846,22 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>2015</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1787,10 +1869,22 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>2016</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1798,10 +1892,22 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>2016</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>3.5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1809,10 +1915,22 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>2017</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1820,10 +1938,22 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>2017</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1831,10 +1961,22 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>2018</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1842,10 +1984,22 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>2019</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1853,10 +2007,22 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>2020</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1864,10 +2030,22 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1966</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1875,10 +2053,22 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>1965</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>92</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1886,10 +2076,22 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
+        <v>93</v>
+      </c>
+      <c r="C54">
+        <v>2005</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,10 +2099,22 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>2006</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1908,10 +2122,22 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <v>2007</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1919,10 +2145,22 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C57">
+        <v>2008</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1930,10 +2168,22 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>2009</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1941,10 +2191,22 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>2010</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1952,10 +2214,22 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C60">
+        <v>2011</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1963,10 +2237,22 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C61">
+        <v>2012</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1974,10 +2260,22 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C62">
+        <v>2013</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,10 +2283,22 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C63">
+        <v>2014</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1996,10 +2306,22 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C64">
+        <v>2015</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2007,10 +2329,22 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C65">
+        <v>2016</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2018,10 +2352,22 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C66">
+        <v>2017</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2029,10 +2375,22 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C67">
+        <v>2018</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2040,10 +2398,22 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1961</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2051,10 +2421,22 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2062,10 +2444,22 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>1991</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>136</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2073,10 +2467,22 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <v>2000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,10 +2490,22 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>2010</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>137</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2095,10 +2513,22 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>2020</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>138</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2106,10 +2536,22 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>1991</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2117,10 +2559,22 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>2000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2128,10 +2582,22 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>2010</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2139,10 +2605,22 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>2020</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>103</v>
       </c>
       <c r="G77" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2150,10 +2628,22 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C78">
+        <v>1991</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2161,10 +2651,22 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>2000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>104</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2172,10 +2674,22 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>2010</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2183,10 +2697,22 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>2020</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>140</v>
       </c>
       <c r="G81" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2194,10 +2720,22 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>1991</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>105</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2205,10 +2743,22 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C83">
+        <v>2000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2216,10 +2766,22 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>2010</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>104</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2227,10 +2789,22 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="C85">
+        <v>2020</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>3.5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2238,10 +2812,22 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2249,10 +2835,22 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>1973</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2260,10 +2858,22 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>1974</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>4.5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2271,10 +2881,22 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>1975</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>4.5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>132</v>
       </c>
       <c r="G89" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2282,10 +2904,22 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>1976</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>111</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2293,10 +2927,22 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1977</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>141</v>
       </c>
       <c r="G91" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,10 +2950,22 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>1978</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>4.5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2315,10 +2973,22 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>1979</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>142</v>
       </c>
       <c r="G93" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2326,10 +2996,22 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>1980</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>4.5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2337,7 +3019,19 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>1981</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>112</v>
       </c>
       <c r="G95" t="s">
         <v>110</v>
@@ -2348,10 +3042,22 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>1982</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2359,10 +3065,22 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>1983</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2370,10 +3088,22 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>1984</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,10 +3111,22 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>1985</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>112</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2392,10 +3134,22 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>1986</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>112</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2403,10 +3157,22 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>1987</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>112</v>
       </c>
       <c r="G101" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2414,10 +3180,22 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>1988</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2425,10 +3203,22 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>1989</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>112</v>
       </c>
       <c r="G103" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2436,10 +3226,22 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>1990</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>112</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2447,10 +3249,22 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>1991</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>112</v>
       </c>
       <c r="G105" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2458,10 +3272,22 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>1992</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>112</v>
       </c>
       <c r="G106" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,10 +3295,22 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>1993</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -2480,10 +3318,22 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>1994</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>112</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -2491,10 +3341,22 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1995</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>112</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -2502,10 +3364,22 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>1996</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>112</v>
       </c>
       <c r="G110" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -2513,10 +3387,22 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>1997</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>112</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,10 +3410,22 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>1998</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>112</v>
       </c>
       <c r="G112" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -2535,10 +3433,22 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>1999</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>112</v>
       </c>
       <c r="G113" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -2546,10 +3456,22 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>2000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>113</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -2557,10 +3479,22 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>2001</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>114</v>
       </c>
       <c r="G115" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -2568,10 +3502,22 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>2002</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>113</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -2579,10 +3525,22 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>2003</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>3.5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>115</v>
       </c>
       <c r="G117" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -2590,10 +3548,22 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>2004</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>3.5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>115</v>
       </c>
       <c r="G118" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -2601,10 +3571,22 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>2005</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>113</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -2612,10 +3594,22 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>2006</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>113</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -2623,102 +3617,720 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>2007</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>113</v>
       </c>
       <c r="G121" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>2008</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="2">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G122" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>2009</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>113</v>
+      </c>
       <c r="G123" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>2010</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G124" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>2011</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G125" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>2012</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="2">
+        <v>4</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G126" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>2013</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="2">
+        <v>4</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G127" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>2014</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="2">
+        <v>4</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>2015</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="2">
+        <v>4</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G129" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>2016</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>3.5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>115</v>
+      </c>
+      <c r="G130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>2017</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>3.5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>115</v>
+      </c>
+      <c r="G131" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>2018</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="2">
+        <v>5</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>2019</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="2">
+        <v>5</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G133" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>2020</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="2">
+        <v>5</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G134" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>2010</v>
+      </c>
+      <c r="D135" t="s">
+        <v>116</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135" t="s">
+        <v>117</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G135" t="s">
-        <v>150</v>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>2005</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="2">
+        <v>4</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138">
+        <v>2006</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="2">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>2007</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="2">
+        <v>4</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G139" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>2008</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="2">
+        <v>4</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>2009</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="2">
+        <v>4</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>2010</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>2011</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="2">
+        <v>5</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>2012</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2">
+        <v>5</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>2013</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="2">
+        <v>5</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>2014</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G146" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>2015</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="2">
+        <v>5</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>2016</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="2">
+        <v>5</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G148" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>2017</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="2">
+        <v>5</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G149" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>2018</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="2">
+        <v>4</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G150" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>2019</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="2">
+        <v>5</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G151" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G54" r:id="rId1" xr:uid="{29349CAC-1BCA-824F-855A-93ED44A978F3}"/>
+    <hyperlink ref="G86" r:id="rId2" xr:uid="{8FF93E98-17D9-B544-A620-2A8CDBF19FAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FoundData/IrelandDataInvestigation.xlsx
+++ b/FoundData/IrelandDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5C467-9935-E94B-89E7-08B8016B40DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF9764-B503-4C4F-8EB6-24036768D6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{8A8C695C-1C44-6A4B-AE3D-6B277C668148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="157">
   <si>
     <t>Country</t>
   </si>
@@ -468,6 +468,45 @@
   </si>
   <si>
     <t>FAOSTAT and WOAH have opposite data trends between these two years. FAOSTAT drops by 600k Cattle whereas WOAH gains by the same amount. It cannot be determined which is more accurate over this period between both sources due to both have such unlikely patterns.</t>
+  </si>
+  <si>
+    <t>Cattle, Pigs, Sheep, Chickens</t>
+  </si>
+  <si>
+    <t>1975-1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1975-1976 saw a once in 150 year drought in Ireland. The Irish government had to put in water restrictions. Although it was only sever for the south-eastern part of the country, we would still expect to see this impact livestock as there would be less grass and other foods for them to eat. FAOSTAT shows a decrease in all four livestock being studied. This makes sense given the weather conditions at the time </t>
+  </si>
+  <si>
+    <t>https://www.met.ie/cms/assets/uploads/2017/08/Oct1974_Dry-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1973 Ireland joined the EU allowing free trade across the european union and free travel for its citizens across borders. One issue with this is now Irish farmers directly compete with the farmers, the issue with this is Irish farmers get paid more than most european farmers. This puts Irish farmers at a price disadvantage since their product will cost more. Given this, it would be expected to see a drop in the livestock populations since it would be harder for the Irish farmers to compete with cheaper EU countries livestock product. FAOSTAT shows a drop in all four livestock after Ireland joined the EU. </t>
+  </si>
+  <si>
+    <t>https://ireland.representation.ec.europa.eu/about-us/irelands-eu-membership_en, https://www.euronews.com/business/2023/11/24/switzerland-and-iceland-highest-payers-across-the-eu-and-eea</t>
+  </si>
+  <si>
+    <t>2008-2010</t>
+  </si>
+  <si>
+    <t>In 2008, Ireland went into a recession as did most of the world. Recessions put pressure on peoples finances and as a result they cut back on expensive items such as beef since there is cheaper protein alternatives. Given this we would expect to see the population of cattle decrease due to the decrease in demand. FAOSTAT shows a drop in the cattle population over this time which makes sense given the economic conditions at the time.</t>
+  </si>
+  <si>
+    <t>https://datacommons.org/place/country/IRL?utm_medium=explore&amp;mprop=amount&amp;popt=EconomicActivity&amp;cpv=activitySource,GrossDomesticProduction&amp;hl=en</t>
+  </si>
+  <si>
+    <t>In 2008, Ireland went into a recession as did most of the world. Recessions put pressure on peoples finances and as a result they cut back on expensive items such as sheep/lamb since there is cheaper protein alternatives. Given this we would expect to see the population of sheep decrease due to the decrease in demand. FAOSTAT shows a drop in the sheep population over this time which makes sense given the economic conditions at the time. However, this decrease was part of an overall decreasing trend so it cannot be easily determined how much of an impact the recession had on the sheep population</t>
+  </si>
+  <si>
+    <t>In 2008, Ireland went into a recession as did most of the world. Recessions put pressure on peoples finances and as a result they cut back on expensive items such as their meat. Given this we would expect to see a reduction in the chicken population as people eat less and switch out for other protein substitutes. FAOSTAT reports an increase in the chicken population over this period. We would expect to see a decrease in the chicken population given the economic situation at the time. However, chicken can be a substitute for other more expensive meats. So it's possible that consumers ate more chicken to save money instead of eating beef or other more expensive proteins.</t>
+  </si>
+  <si>
+    <t>In 2008, Ireland went into a recession as did most of the world. Recessions put pressure on peoples finances and as a result they cut back on expensive items such as beef since there is cheaper protein alternatives. Given this we would expect to see the population of cattle decrease due to the decrease in demand. WOAH shows a slight decrease in the cattle population over this time period  which makes sense since cows live a long time. So they could have kept the population stable over this time waiting for the demand to return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2008, Ireland went into a recession as did most of the world. Recessions put pressure on peoples finances and as a result they cut back on expensive items such as their meat. Given this we would expect to see a reduction in the pork population as people eat less and switch out for other protein substitutes. FAOSTAT and WOAH report a drop in 2009 but then an increase in 2010. It would be expected to see a decrease in both years given the recession lasted longer than one year. </t>
   </si>
 </sst>
 </file>
@@ -844,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF5AA93-6402-C847-9847-FC7E9B787ED2}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F136" sqref="A2:F151"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4323,6 +4362,167 @@
       </c>
       <c r="G151" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="2">
+        <v>5</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153">
+        <v>1973</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="2">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="2">
+        <v>5</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" t="s">
+        <v>150</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="2">
+        <v>5</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" t="s">
+        <v>150</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="2">
+        <v>3</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>100</v>
+      </c>
+      <c r="C157" t="s">
+        <v>150</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="2">
+        <v>3</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>150</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="2">
+        <v>5</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G158" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
